--- a/biology/Microbiologie/Gélose_viande_levure/Gélose_viande_levure.xlsx
+++ b/biology/Microbiologie/Gélose_viande_levure/Gélose_viande_levure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_viande_levure</t>
+          <t>Gélose_viande_levure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une gélose viande-levure est un milieu de culture utilisé pour l'isolement des bactéries anaérobies stricts, la recherche du type respiratoire ; c'est un milieu très réducteur, très nutritif.
 Composition :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_viande_levure</t>
+          <t>Gélose_viande_levure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu VL est conditionné en un tube profond et étroit. Il se crée un gradient de concentration en oxygène ; sa plus forte concentration se trouve près de la surface et devient quasiment nulle dans le fond du tube. Le mode de respiration de la bactérie déterminera l’endroit où elle poussera le mieux dans la gélose.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_viande_levure</t>
+          <t>Gélose_viande_levure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de milieu se conditionne en grand tube avec des bouchons à viser. Il faut obtenir le moins d’air possible sur le dessus du tube (remplir de gélose jusqu’au-dessus). L’ensemencement se fait lorsque la gélose est encore molle, mais pas trop chaude pour ne pas tuer les bactéries (température de 43 °C environ).
 La lecture se fait suivant l’endroit où la bactérie s'est développée. 
